--- a/biology/Botanique/Adromischus/Adromischus.xlsx
+++ b/biology/Botanique/Adromischus/Adromischus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adromischus est un genre de plantes succulentes de la famille des Crassulaceae. Adromischus est endémique d'Afrique du Sud.
 Le nom vient du grec ancien "adros" (=gros) et "mischos" (=tige) à cause de ses feuilles épaisses.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes présentent des tiges très courtes sur lesquelles sont implantées des feuilles grossièrement triangulaires. Les feuilles sont épaisses, gonflées sur les deux faces. Le bord extérieur des feuilles ondulé permet d'identifier plusieurs espèces.
 Les feuilles sont de couleur d'un vert variable, avec parfois des taches.
@@ -547,7 +561,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture est assez facile, à condition de disposer d'un endroit clair, bien aéré, avec une température fraîche (de l'ordre de 12 °C) en hiver, et un terreau plus riche que pour les autres succulentes.
 Elles se reproduisent facilement (et parfois involontairement car les feuilles tombent facilement par bouturage.
@@ -579,7 +595,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adromischus alstonii
